--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/Login_Login.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/Login_Login.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E591086-C310-4C8A-AF51-CBF398E2BD9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A940E3-B879-4E52-95BB-2B9F98BCCF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="1060" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="14400" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
   <si>
     <t>Keyword</t>
   </si>
@@ -82,9 +82,6 @@
     <t>button_login</t>
   </si>
   <si>
-    <t>button_okWarning</t>
-  </si>
-  <si>
     <t>delay</t>
   </si>
   <si>
@@ -106,12 +103,6 @@
     <t>getData=WaitForUserID</t>
   </si>
   <si>
-    <t>getData=WaitForOkWarning</t>
-  </si>
-  <si>
-    <t>getData=OkWarning</t>
-  </si>
-  <si>
     <t>WaitForUserID</t>
   </si>
   <si>
@@ -167,9 +158,6 @@
   </si>
   <si>
     <t>Logging with CF003 user ID</t>
-  </si>
-  <si>
-    <t>navigateToNextPage</t>
   </si>
   <si>
     <t>CF001</t>
@@ -271,8 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -648,7 +635,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A7" sqref="A7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -661,156 +648,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -820,7 +789,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L68"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -832,463 +801,341 @@
     <col min="2" max="2" width="44.1796875" customWidth="1"/>
     <col min="3" max="3" width="6.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.08984375" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.08984375" customWidth="1"/>
     <col min="11" max="11" width="26.54296875" customWidth="1"/>
     <col min="12" max="12" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="C3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="L6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B66" s="1"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="1"/>
-    </row>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1296,12 +1143,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1437,15 +1281,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A379EDB-DDBF-4E96-9D13-E82BA1A4C408}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B671AFB-4015-4766-9DDE-AAF09D7A20BB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1469,10 +1317,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B671AFB-4015-4766-9DDE-AAF09D7A20BB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A379EDB-DDBF-4E96-9D13-E82BA1A4C408}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/Login_Login.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/Login_Login.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A940E3-B879-4E52-95BB-2B9F98BCCF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D85EB80-195B-496A-BE98-2EA1BBFFE51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="2240" windowWidth="14400" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
   <si>
     <t>Keyword</t>
   </si>
@@ -635,7 +635,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -750,15 +750,9 @@
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1143,9 +1137,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1281,19 +1278,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B671AFB-4015-4766-9DDE-AAF09D7A20BB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A379EDB-DDBF-4E96-9D13-E82BA1A4C408}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1317,9 +1310,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A379EDB-DDBF-4E96-9D13-E82BA1A4C408}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B671AFB-4015-4766-9DDE-AAF09D7A20BB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/Login_Login.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/Login_Login.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A940E3-B879-4E52-95BB-2B9F98BCCF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC9927D-C129-4FB6-A3A5-DBD71A93ACF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="2240" windowWidth="14400" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
   <si>
     <t>Keyword</t>
   </si>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>Worsts80#Picard</t>
-  </si>
-  <si>
-    <t>button_proceed</t>
   </si>
 </sst>
 </file>
@@ -634,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -736,29 +733,17 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1149,6 +1134,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009AB4AFD5B95DA74C9A5B41FD6646044C" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="93f9b83cafbf659b556859d3b1438975">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="89d62139-6d9b-4693-b5fe-6b91abfb079e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14da90777f3d3c2815d7913a0d1ee4cf" ns2:_="">
     <xsd:import namespace="89d62139-6d9b-4693-b5fe-6b91abfb079e"/>
@@ -1280,15 +1274,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B671AFB-4015-4766-9DDE-AAF09D7A20BB}">
   <ds:schemaRefs>
@@ -1299,6 +1284,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A379EDB-DDBF-4E96-9D13-E82BA1A4C408}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE96A698-88B9-42A4-9502-16538EAC77A8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1314,12 +1307,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A379EDB-DDBF-4E96-9D13-E82BA1A4C408}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>